--- a/meta/objects/ObjectSample.xlsx
+++ b/meta/objects/ObjectSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoVueComponent/meta/objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50EC56E-148D-7542-9EFB-3562706D3E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D351C-6B6D-DB4C-9E8A-1A5E8D33CA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9360" yWindow="1640" windowWidth="25520" windowHeight="15540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1641,8 +1641,8 @@
   </sheetPr>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
